--- a/br_rename-deriv-regulatory/download/rts27_2020/Q1/Table_1.xlsx
+++ b/br_rename-deriv-regulatory/download/rts27_2020/Q1/Table_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/summercamilleri/Dropbox (Deriv)/RMG_incorporation/Binary Investments (Europe) Ltd/MFSA/Data Reporting/RTS27/2020/Q1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadijatartari/Dropbox (Deriv)/RMG_incorporation/Deriv Investments (Europe) Ltd/MFSA/Data Reporting/RTS27/2020/Q1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A6BA76-E5BF-5F41-8991-B015FBFFC768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35543AB6-A979-6F47-B49E-FC64D290B596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{A315AEB8-1F5D-0D4D-A557-714F00D1DF21}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" xr2:uid="{A315AEB8-1F5D-0D4D-A557-714F00D1DF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Type of Execution Venue" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>Venue</t>
   </si>
   <si>
-    <t>Binary Investments (Europe) Ltd</t>
-  </si>
-  <si>
     <t>Legal Entity Identifier: 529900GJO69GVJ6GK177</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">Market Segment </t>
-  </si>
-  <si>
-    <t>The Market Segment for Binary Investments (Europe) Ltd is Over the Counter for investors interested to trade in Contracts for Difference (CFDs).</t>
   </si>
   <si>
     <t>TYPE OF EXECUTION</t>
@@ -104,6 +98,12 @@
   </si>
   <si>
     <t>60 minutes</t>
+  </si>
+  <si>
+    <t>Deriv Investments (Europe) Ltd</t>
+  </si>
+  <si>
+    <t>The Market Segment for Deriv Investments (Europe) Ltd is Over the Counter for investors interested to trade in Contracts for Difference (CFDs).</t>
   </si>
 </sst>
 </file>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D3EE3F-6106-854C-BF8C-7B87AC02A538}">
   <dimension ref="A2:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,21 +516,21 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -540,21 +540,21 @@
     </row>
     <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -565,42 +565,42 @@
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="8">
         <v>43831</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -611,19 +611,19 @@
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8">
         <v>43832</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -634,19 +634,19 @@
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="8">
         <v>43833</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -657,19 +657,19 @@
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="8">
         <v>43834</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -680,19 +680,19 @@
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8">
         <v>43835</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -703,19 +703,19 @@
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8">
         <v>43836</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -726,19 +726,19 @@
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="8">
         <v>43837</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -749,19 +749,19 @@
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8">
         <v>43838</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -772,19 +772,19 @@
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="8">
         <v>43839</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -795,19 +795,19 @@
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8">
         <v>43840</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -818,19 +818,19 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="8">
         <v>43841</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -841,19 +841,19 @@
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8">
         <v>43842</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -864,19 +864,19 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8">
         <v>43843</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -887,19 +887,19 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="8">
         <v>43844</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -910,19 +910,19 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="8">
         <v>43845</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -933,19 +933,19 @@
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8">
         <v>43846</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -956,19 +956,19 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="8">
         <v>43847</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -979,19 +979,19 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" s="8">
         <v>43848</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -1002,19 +1002,19 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25" s="8">
         <v>43849</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -1025,19 +1025,19 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" s="8">
         <v>43850</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -1048,19 +1048,19 @@
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" s="8">
         <v>43851</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -1071,19 +1071,19 @@
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28" s="8">
         <v>43852</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -1094,19 +1094,19 @@
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" s="8">
         <v>43853</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -1117,19 +1117,19 @@
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30" s="8">
         <v>43854</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
@@ -1140,19 +1140,19 @@
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31" s="8">
         <v>43856</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
@@ -1163,19 +1163,19 @@
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32" s="8">
         <v>43857</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -1186,19 +1186,19 @@
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33" s="8">
         <v>43858</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F33" s="2">
         <v>30</v>
@@ -1209,19 +1209,19 @@
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B34" s="8">
         <v>43859</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -1232,19 +1232,19 @@
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B35" s="8">
         <v>43860</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -1255,19 +1255,19 @@
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B36" s="8">
         <v>43861</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -1278,19 +1278,19 @@
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" s="8">
         <v>43863</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -1301,19 +1301,19 @@
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B38" s="8">
         <v>43864</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38" s="7">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
@@ -1324,19 +1324,19 @@
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39" s="8">
         <v>43865</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
@@ -1347,19 +1347,19 @@
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B40" s="8">
         <v>43866</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D40" s="7">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -1370,19 +1370,19 @@
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41" s="8">
         <v>43867</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
@@ -1393,19 +1393,19 @@
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B42" s="8">
         <v>43868</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
@@ -1416,19 +1416,19 @@
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B43" s="8">
         <v>43869</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
@@ -1439,19 +1439,19 @@
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B44" s="8">
         <v>43870</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D44" s="7">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
@@ -1462,19 +1462,19 @@
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B45" s="8">
         <v>43871</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
@@ -1485,19 +1485,19 @@
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B46" s="8">
         <v>43872</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -1508,19 +1508,19 @@
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B47" s="8">
         <v>43873</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F47" s="2">
         <v>0</v>
@@ -1531,19 +1531,19 @@
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B48" s="8">
         <v>43874</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F48" s="2">
         <v>0</v>
@@ -1554,19 +1554,19 @@
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B49" s="8">
         <v>43875</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
@@ -1577,19 +1577,19 @@
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B50" s="8">
         <v>43876</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F50" s="2">
         <v>0</v>
@@ -1600,19 +1600,19 @@
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B51" s="8">
         <v>43877</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
@@ -1623,19 +1623,19 @@
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B52" s="8">
         <v>43878</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
@@ -1646,19 +1646,19 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B53" s="8">
         <v>43879</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
@@ -1669,19 +1669,19 @@
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B54" s="8">
         <v>43880</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F54" s="2">
         <v>0</v>
@@ -1692,19 +1692,19 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B55" s="8">
         <v>43881</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
@@ -1715,19 +1715,19 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" s="8">
         <v>43882</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
@@ -1738,19 +1738,19 @@
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B57" s="8">
         <v>43884</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
@@ -1761,19 +1761,19 @@
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B58" s="8">
         <v>43885</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F58" s="2">
         <v>0</v>
@@ -1784,19 +1784,19 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B59" s="8">
         <v>43886</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F59" s="2">
         <v>0</v>
@@ -1807,19 +1807,19 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B60" s="8">
         <v>43887</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F60" s="2">
         <v>0</v>
@@ -1830,19 +1830,19 @@
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B61" s="8">
         <v>43888</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F61" s="2">
         <v>0</v>
@@ -1853,19 +1853,19 @@
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B62" s="8">
         <v>43889</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
@@ -1876,19 +1876,19 @@
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B63" s="8">
         <v>43890</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F63" s="2">
         <v>0</v>
@@ -1899,19 +1899,19 @@
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B64" s="8">
         <v>43891</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F64" s="2">
         <v>0</v>
@@ -1922,19 +1922,19 @@
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B65" s="8">
         <v>43892</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D65" s="7">
         <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F65" s="2">
         <v>0</v>
@@ -1945,19 +1945,19 @@
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B66" s="8">
         <v>43893</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F66" s="2">
         <v>0</v>
@@ -1968,19 +1968,19 @@
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B67" s="8">
         <v>43894</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F67" s="2">
         <v>0</v>
@@ -1991,19 +1991,19 @@
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B68" s="8">
         <v>43895</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F68" s="2">
         <v>0</v>
@@ -2014,19 +2014,19 @@
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B69" s="8">
         <v>43896</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F69" s="2">
         <v>0</v>
@@ -2037,19 +2037,19 @@
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B70" s="8">
         <v>43897</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F70" s="2">
         <v>0</v>
@@ -2060,19 +2060,19 @@
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B71" s="8">
         <v>43898</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F71" s="2">
         <v>0</v>
@@ -2083,19 +2083,19 @@
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B72" s="8">
         <v>43899</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F72" s="2">
         <v>0</v>
@@ -2106,19 +2106,19 @@
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B73" s="8">
         <v>43900</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F73" s="2">
         <v>0</v>
@@ -2129,19 +2129,19 @@
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B74" s="8">
         <v>43901</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F74" s="2">
         <v>73</v>
@@ -2152,19 +2152,19 @@
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B75" s="8">
         <v>43902</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F75" s="2">
         <v>0</v>
@@ -2175,19 +2175,19 @@
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B76" s="8">
         <v>43903</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F76" s="2">
         <v>0</v>
@@ -2198,19 +2198,19 @@
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B77" s="8">
         <v>43904</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F77" s="2">
         <v>0</v>
@@ -2221,19 +2221,19 @@
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B78" s="8">
         <v>43905</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F78" s="2">
         <v>0</v>
@@ -2244,19 +2244,19 @@
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B79" s="8">
         <v>43906</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F79" s="2">
         <v>0</v>
@@ -2267,19 +2267,19 @@
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B80" s="8">
         <v>43907</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F80" s="2">
         <v>0</v>
@@ -2290,19 +2290,19 @@
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B81" s="8">
         <v>43908</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F81" s="2">
         <v>0</v>
@@ -2313,19 +2313,19 @@
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B82" s="8">
         <v>43909</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F82" s="2">
         <v>0</v>
@@ -2336,19 +2336,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B83" s="8">
         <v>43910</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F83" s="2">
         <v>0</v>
@@ -2359,19 +2359,19 @@
     </row>
     <row r="84" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B84" s="8">
         <v>43912</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D84" s="7">
         <v>1</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F84" s="2">
         <v>0</v>
@@ -2382,19 +2382,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B85" s="8">
         <v>43913</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F85" s="2">
         <v>0</v>
@@ -2405,19 +2405,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B86" s="8">
         <v>43914</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F86" s="2">
         <v>0</v>
@@ -2428,19 +2428,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B87" s="8">
         <v>43915</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F87" s="2">
         <v>0</v>
@@ -2451,19 +2451,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B88" s="8">
         <v>43916</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F88" s="2">
         <v>0</v>
@@ -2474,19 +2474,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B89" s="8">
         <v>43917</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F89" s="2">
         <v>0</v>
@@ -2497,19 +2497,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B90" s="8">
         <v>43918</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F90" s="2">
         <v>0</v>
@@ -2520,19 +2520,19 @@
     </row>
     <row r="91" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B91" s="8">
         <v>43919</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D91" s="7">
         <v>1</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F91" s="2">
         <v>0</v>
@@ -2543,19 +2543,19 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B92" s="8">
         <v>43920</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F92" s="2">
         <v>0</v>
@@ -2566,19 +2566,19 @@
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B93" s="8">
         <v>43921</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F93" s="2">
         <v>0</v>
